--- a/FEBRERO 2022 PADRON_PYTHON_ASSA.xlsx
+++ b/FEBRERO 2022 PADRON_PYTHON_ASSA.xlsx
@@ -67806,7 +67806,7 @@
         <v>1251</v>
       </c>
       <c r="C1238" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="Q1238">
         <v>-4059.48</v>

--- a/FEBRERO 2022 PADRON_PYTHON_ASSA.xlsx
+++ b/FEBRERO 2022 PADRON_PYTHON_ASSA.xlsx
@@ -67806,7 +67806,7 @@
         <v>1251</v>
       </c>
       <c r="C1238" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q1238">
         <v>-4059.48</v>
